--- a/final report/TaskTracker9000_System_Test.xlsx
+++ b/final report/TaskTracker9000_System_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shana\Documents\GitHub\FYP\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C82B81B-9637-4603-ABAC-5C7031FAA3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FED655-A6D0-468B-9BCB-7ABF820D478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="29040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
     <t>The selected project is deleted, while other projects remain.</t>
   </si>
   <si>
-    <t>SIM Student &amp; Staff</t>
+    <t>SIM Student</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
